--- a/sensor_classification/feature_engineering/experiments_results_fe.xlsx
+++ b/sensor_classification/feature_engineering/experiments_results_fe.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/YShimada-MBP16/Documents/Code_Github/DL_for_ImageData_and_Finetuning/sensor_classification/feature_engineering/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6900FBA-1097-F94B-B975-49D32CF272F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F74291-BCA8-F844-BD3A-865D40029266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35840" yWindow="2600" windowWidth="28300" windowHeight="17360" activeTab="1" xr2:uid="{2EDDA479-AC94-3A4B-A176-4E97F70E2F89}"/>
+    <workbookView xWindow="35840" yWindow="2040" windowWidth="28300" windowHeight="16460" activeTab="3" xr2:uid="{2EDDA479-AC94-3A4B-A176-4E97F70E2F89}"/>
   </bookViews>
   <sheets>
     <sheet name="about" sheetId="3" r:id="rId1"/>
     <sheet name="Experiments" sheetId="1" r:id="rId2"/>
     <sheet name="FI-SenCls_minimal_features_defa" sheetId="2" r:id="rId3"/>
+    <sheet name="FI-SenCls_minimal_features_PS_d" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="51">
   <si>
     <t>SenCls_minimal_features_default</t>
     <phoneticPr fontId="2"/>
@@ -208,13 +209,42 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>SenCls_minimal_features_PS_default</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PS1,2,3,4,5,6</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>5と同じ特徴量で特徴量エンジニアリングを実施しない（OriginalTransformerのみ）</t>
+    <rPh sb="4" eb="7">
+      <t xml:space="preserve">トクチョウリョウデ </t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t xml:space="preserve">トクチョウリョウ </t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t xml:space="preserve">ジッシシナイ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SenCls_minimal_features_PS_o_default</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>data---original-feature-importance__No5.csv</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="179" formatCode="0.0%"/>
+    <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -306,7 +336,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2">
@@ -651,7 +681,7 @@
   <dimension ref="B2:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -675,17 +705,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7685F39C-333F-CB40-899E-A78286EB0C54}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
     <col min="2" max="2" width="39.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.7109375" customWidth="1"/>
+    <col min="4" max="4" width="43.5703125" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -786,6 +817,55 @@
       </c>
       <c r="D5" t="s">
         <v>45</v>
+      </c>
+      <c r="E5">
+        <v>0.98953080000000004</v>
+      </c>
+      <c r="F5">
+        <v>0.98398300000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6">
+        <v>0.99661569999999999</v>
+      </c>
+      <c r="F6">
+        <v>0.98950269999999996</v>
+      </c>
+      <c r="H6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7">
+        <v>0.99237430000000004</v>
+      </c>
+      <c r="F7">
+        <v>0.98329310000000003</v>
       </c>
     </row>
   </sheetData>
@@ -799,7 +879,7 @@
   <dimension ref="B4:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:H11"/>
+      <selection activeCell="F4" sqref="F4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1167,4 +1247,249 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6925A8A-8118-0047-9062-D451DD46718A}">
+  <dimension ref="B4:H11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:8">
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1">
+        <f>SUM(C5:C10)</f>
+        <v>4.1799999999999891</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="1">
+        <f>SUM(G5:G11)</f>
+        <v>4.1799999999999891</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>2.35299999999999</v>
+      </c>
+      <c r="D5" s="3">
+        <f>C5/D$4</f>
+        <v>0.56291866028708037</v>
+      </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5">
+        <v>1.2070000000000001</v>
+      </c>
+      <c r="H5" s="3">
+        <f>G5/H$4</f>
+        <v>0.28875598086124477</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" ref="D6:D10" si="0">C6/D$4</f>
+        <v>0.15765550239234491</v>
+      </c>
+      <c r="F6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6">
+        <v>1.0759999999999901</v>
+      </c>
+      <c r="H6" s="3">
+        <f t="shared" ref="H6:H11" si="1">G6/H$4</f>
+        <v>0.25741626794258204</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7">
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" si="0"/>
+        <v>8.8277511961722718E-2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7">
+        <v>0.747</v>
+      </c>
+      <c r="H7" s="3">
+        <f t="shared" si="1"/>
+        <v>0.17870813397129234</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="0"/>
+        <v>8.6842105263158123E-2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8">
+        <v>0.502</v>
+      </c>
+      <c r="H8" s="3">
+        <f t="shared" si="1"/>
+        <v>0.12009569377990462</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="0"/>
+        <v>6.363636363636381E-2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="H9" s="3">
+        <f t="shared" si="1"/>
+        <v>6.7942583732057582E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <v>0.17</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="0"/>
+        <v>4.0669856459330252E-2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10">
+        <v>0.27199999999999902</v>
+      </c>
+      <c r="H10" s="3">
+        <f t="shared" si="1"/>
+        <v>6.507177033492817E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="F11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="H11" s="3">
+        <f t="shared" si="1"/>
+        <v>2.2009569377990489E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <conditionalFormatting sqref="C5:C10">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C918F10E-798E-C94B-A0CB-2C868E394404}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5:G11">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{45D324B2-28D3-0042-A46D-997A29105FB3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C918F10E-798E-C94B-A0CB-2C868E394404}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C5:C10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{45D324B2-28D3-0042-A46D-997A29105FB3}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G5:G11</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/sensor_classification/feature_engineering/experiments_results_fe.xlsx
+++ b/sensor_classification/feature_engineering/experiments_results_fe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/YShimada-MBP16/Documents/Code_Github/DL_for_ImageData_and_Finetuning/sensor_classification/feature_engineering/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F74291-BCA8-F844-BD3A-865D40029266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E06F44AE-F343-854E-9A45-695121C8646E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35840" yWindow="2040" windowWidth="28300" windowHeight="16460" activeTab="3" xr2:uid="{2EDDA479-AC94-3A4B-A176-4E97F70E2F89}"/>
+    <workbookView xWindow="35840" yWindow="4240" windowWidth="28300" windowHeight="16460" activeTab="3" xr2:uid="{2EDDA479-AC94-3A4B-A176-4E97F70E2F89}"/>
   </bookViews>
   <sheets>
     <sheet name="about" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="86">
   <si>
     <t>SenCls_minimal_features_default</t>
     <phoneticPr fontId="2"/>
@@ -237,6 +237,111 @@
   <si>
     <t>data---original-feature-importance__No5.csv</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>PS2__standard_deviation</t>
+  </si>
+  <si>
+    <t>PS2__mean</t>
+  </si>
+  <si>
+    <t>PS1__median</t>
+  </si>
+  <si>
+    <t>PS2__sum_values</t>
+  </si>
+  <si>
+    <t>PS2__median</t>
+  </si>
+  <si>
+    <t>PS3__variance</t>
+  </si>
+  <si>
+    <t>PS6__sum_values</t>
+  </si>
+  <si>
+    <t>PS5__standard_deviation</t>
+  </si>
+  <si>
+    <t>PS6__maximum</t>
+  </si>
+  <si>
+    <t>PS1__mean</t>
+  </si>
+  <si>
+    <t>PS1__maximum</t>
+  </si>
+  <si>
+    <t>PS4__mean</t>
+  </si>
+  <si>
+    <t>PS4__minimum</t>
+  </si>
+  <si>
+    <t>PS5__mean</t>
+  </si>
+  <si>
+    <t>PS3__median</t>
+  </si>
+  <si>
+    <t>PS3__standard_deviation</t>
+  </si>
+  <si>
+    <t>PS5__maximum</t>
+  </si>
+  <si>
+    <t>PS3__mean</t>
+  </si>
+  <si>
+    <t>PS2__maximum</t>
+  </si>
+  <si>
+    <t>PS5__variance</t>
+  </si>
+  <si>
+    <t>PS5__minimum</t>
+  </si>
+  <si>
+    <t>PS4__maximum</t>
+  </si>
+  <si>
+    <t>PS4__standard_deviation</t>
+  </si>
+  <si>
+    <t>PS1__standard_deviation</t>
+  </si>
+  <si>
+    <t>PS3__maximum</t>
+  </si>
+  <si>
+    <t>PS6__minimum</t>
+  </si>
+  <si>
+    <t>PS1__sum_values</t>
+  </si>
+  <si>
+    <t>PS4__variance</t>
+  </si>
+  <si>
+    <t>PS5__median</t>
+  </si>
+  <si>
+    <t>PS6__median</t>
+  </si>
+  <si>
+    <t>PS1__minimum</t>
+  </si>
+  <si>
+    <t>PS1__variance</t>
+  </si>
+  <si>
+    <t>PS6__mean</t>
+  </si>
+  <si>
+    <t>PS4__median</t>
   </si>
 </sst>
 </file>
@@ -1251,187 +1356,452 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6925A8A-8118-0047-9062-D451DD46718A}">
-  <dimension ref="B4:H11"/>
+  <dimension ref="B4:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:8">
+    <row r="4" spans="2:11">
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1">
-        <f>SUM(C5:C10)</f>
+      <c r="E4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="1">
+        <f>SUM(F5:F10)</f>
         <v>4.1799999999999891</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="1">
-        <f>SUM(G5:G11)</f>
+      <c r="K4" s="1">
+        <f>SUM(J5:J11)</f>
         <v>4.1799999999999891</v>
       </c>
     </row>
-    <row r="5" spans="2:8">
+    <row r="5" spans="2:11">
       <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
         <v>13</v>
       </c>
-      <c r="C5">
+      <c r="F5">
         <v>2.35299999999999</v>
       </c>
-      <c r="D5" s="3">
-        <f>C5/D$4</f>
+      <c r="G5" s="3">
+        <f>F5/G$4</f>
         <v>0.56291866028708037</v>
       </c>
-      <c r="F5" t="s">
+      <c r="I5" t="s">
         <v>30</v>
       </c>
-      <c r="G5">
+      <c r="J5">
         <v>1.2070000000000001</v>
       </c>
-      <c r="H5" s="3">
-        <f>G5/H$4</f>
+      <c r="K5" s="3">
+        <f>J5/K$4</f>
         <v>0.28875598086124477</v>
       </c>
     </row>
-    <row r="6" spans="2:8">
+    <row r="6" spans="2:11">
       <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="E6" t="s">
         <v>15</v>
       </c>
-      <c r="C6">
+      <c r="F6">
         <v>0.65900000000000003</v>
       </c>
-      <c r="D6" s="3">
-        <f t="shared" ref="D6:D10" si="0">C6/D$4</f>
+      <c r="G6" s="3">
+        <f t="shared" ref="G6:G10" si="0">F6/G$4</f>
         <v>0.15765550239234491</v>
       </c>
-      <c r="F6" t="s">
+      <c r="I6" t="s">
         <v>31</v>
       </c>
-      <c r="G6">
+      <c r="J6">
         <v>1.0759999999999901</v>
       </c>
-      <c r="H6" s="3">
-        <f t="shared" ref="H6:H11" si="1">G6/H$4</f>
+      <c r="K6" s="3">
+        <f t="shared" ref="K6:K11" si="1">J6/K$4</f>
         <v>0.25741626794258204</v>
       </c>
     </row>
-    <row r="7" spans="2:8">
+    <row r="7" spans="2:11">
       <c r="B7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="E7" t="s">
         <v>28</v>
       </c>
-      <c r="C7">
+      <c r="F7">
         <v>0.36899999999999999</v>
       </c>
-      <c r="D7" s="3">
+      <c r="G7" s="3">
         <f t="shared" si="0"/>
         <v>8.8277511961722718E-2</v>
       </c>
-      <c r="F7" t="s">
+      <c r="I7" t="s">
         <v>32</v>
       </c>
-      <c r="G7">
+      <c r="J7">
         <v>0.747</v>
       </c>
-      <c r="H7" s="3">
+      <c r="K7" s="3">
         <f t="shared" si="1"/>
         <v>0.17870813397129234</v>
       </c>
     </row>
-    <row r="8" spans="2:8">
+    <row r="8" spans="2:11">
       <c r="B8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="E8" t="s">
         <v>24</v>
       </c>
-      <c r="C8">
+      <c r="F8">
         <v>0.36299999999999999</v>
       </c>
-      <c r="D8" s="3">
+      <c r="G8" s="3">
         <f t="shared" si="0"/>
         <v>8.6842105263158123E-2</v>
       </c>
-      <c r="F8" t="s">
+      <c r="I8" t="s">
         <v>33</v>
       </c>
-      <c r="G8">
+      <c r="J8">
         <v>0.502</v>
       </c>
-      <c r="H8" s="3">
+      <c r="K8" s="3">
         <f t="shared" si="1"/>
         <v>0.12009569377990462</v>
       </c>
     </row>
-    <row r="9" spans="2:8">
+    <row r="9" spans="2:11">
       <c r="B9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="E9" t="s">
         <v>19</v>
       </c>
-      <c r="C9">
+      <c r="F9">
         <v>0.26600000000000001</v>
       </c>
-      <c r="D9" s="3">
+      <c r="G9" s="3">
         <f t="shared" si="0"/>
         <v>6.363636363636381E-2</v>
       </c>
-      <c r="F9" t="s">
+      <c r="I9" t="s">
         <v>34</v>
       </c>
-      <c r="G9">
+      <c r="J9">
         <v>0.28399999999999997</v>
       </c>
-      <c r="H9" s="3">
+      <c r="K9" s="3">
         <f t="shared" si="1"/>
         <v>6.7942583732057582E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:8">
+    <row r="10" spans="2:11">
       <c r="B10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="E10" t="s">
         <v>16</v>
       </c>
-      <c r="C10">
+      <c r="F10">
         <v>0.17</v>
       </c>
-      <c r="D10" s="3">
+      <c r="G10" s="3">
         <f t="shared" si="0"/>
         <v>4.0669856459330252E-2</v>
       </c>
-      <c r="F10" t="s">
+      <c r="I10" t="s">
         <v>36</v>
       </c>
-      <c r="G10">
+      <c r="J10">
         <v>0.27199999999999902</v>
       </c>
-      <c r="H10" s="3">
+      <c r="K10" s="3">
         <f t="shared" si="1"/>
         <v>6.507177033492817E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:8">
-      <c r="F11" t="s">
+    <row r="11" spans="2:11">
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="I11" t="s">
         <v>35</v>
       </c>
-      <c r="G11">
+      <c r="J11">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="H11" s="3">
+      <c r="K11" s="3">
         <f t="shared" si="1"/>
         <v>2.2009569377990489E-2</v>
       </c>
     </row>
+    <row r="12" spans="2:11">
+      <c r="B12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12">
+        <v>0.13400000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="B13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13">
+        <v>0.121</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14">
+        <v>0.105</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17">
+        <v>6.3E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18">
+        <v>5.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19">
+        <v>4.9000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20">
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="B28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3">
+      <c r="B29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3">
+      <c r="B30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3">
+      <c r="B31" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3">
+      <c r="B32" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="B36" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="B37" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3">
+      <c r="B38" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="C5:C10">
-    <cfRule type="dataBar" priority="2">
+  <conditionalFormatting sqref="F5:F10">
+    <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1444,7 +1814,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5:G11">
+  <conditionalFormatting sqref="J5:J11">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{45D324B2-28D3-0042-A46D-997A29105FB3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5:C38">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -1453,7 +1837,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{45D324B2-28D3-0042-A46D-997A29105FB3}</x14:id>
+          <x14:id>{502F7664-8523-0843-A34B-5797CA9DCC4F}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1473,7 +1857,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C5:C10</xm:sqref>
+          <xm:sqref>F5:F10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{45D324B2-28D3-0042-A46D-997A29105FB3}">
@@ -1486,7 +1870,20 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G5:G11</xm:sqref>
+          <xm:sqref>J5:J11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{502F7664-8523-0843-A34B-5797CA9DCC4F}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C5:C38</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/sensor_classification/feature_engineering/experiments_results_fe.xlsx
+++ b/sensor_classification/feature_engineering/experiments_results_fe.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/YShimada-MBP16/Documents/Code_Github/DL_for_ImageData_and_Finetuning/sensor_classification/feature_engineering/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E06F44AE-F343-854E-9A45-695121C8646E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4195AD44-609D-4B41-A312-1F4B58368E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35840" yWindow="4240" windowWidth="28300" windowHeight="16460" activeTab="3" xr2:uid="{2EDDA479-AC94-3A4B-A176-4E97F70E2F89}"/>
+    <workbookView xWindow="35840" yWindow="6180" windowWidth="28300" windowHeight="15420" activeTab="1" xr2:uid="{2EDDA479-AC94-3A4B-A176-4E97F70E2F89}"/>
   </bookViews>
   <sheets>
     <sheet name="about" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="90">
   <si>
     <t>SenCls_minimal_features_default</t>
     <phoneticPr fontId="2"/>
@@ -163,10 +163,6 @@
   </si>
   <si>
     <t>variance</t>
-  </si>
-  <si>
-    <t>Data</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>https://archive.ics.uci.edu/dataset/447/condition+monitoring+of+hydraulic+systems</t>
@@ -342,6 +338,26 @@
   </si>
   <si>
     <t>PS4__median</t>
+  </si>
+  <si>
+    <t>Data Source</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Train</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Test</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SenCls_minimal_features_Train.csv</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SenCls_minimal_features_Test.csv</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -783,20 +799,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{226AD7C0-7158-194B-A523-D0B7121D6BC3}">
-  <dimension ref="B2:C2"/>
+  <dimension ref="B2:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
-    <row r="2" spans="2:3">
+    <row r="2" spans="2:4">
       <c r="B2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>38</v>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="C4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="C5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -812,7 +844,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7685F39C-333F-CB40-899E-A78286EB0C54}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -826,7 +858,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -875,13 +907,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E3">
         <v>0.99630220000000003</v>
@@ -895,13 +927,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E4">
         <v>0.99215109999999995</v>
@@ -915,13 +947,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E5">
         <v>0.98953080000000004</v>
@@ -935,13 +967,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E6">
         <v>0.99661569999999999</v>
@@ -950,7 +982,7 @@
         <v>0.98950269999999996</v>
       </c>
       <c r="H6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -958,13 +990,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E7">
         <v>0.99237430000000004</v>
@@ -1358,7 +1390,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6925A8A-8118-0047-9062-D451DD46718A}">
   <dimension ref="B4:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
@@ -1370,7 +1402,7 @@
   <sheetData>
     <row r="4" spans="2:11">
       <c r="B4" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>11</v>
@@ -1398,7 +1430,7 @@
     </row>
     <row r="5" spans="2:11">
       <c r="B5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1426,7 +1458,7 @@
     </row>
     <row r="6" spans="2:11">
       <c r="B6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C6">
         <v>0.82099999999999995</v>
@@ -1454,7 +1486,7 @@
     </row>
     <row r="7" spans="2:11">
       <c r="B7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C7">
         <v>0.44800000000000001</v>
@@ -1482,7 +1514,7 @@
     </row>
     <row r="8" spans="2:11">
       <c r="B8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C8">
         <v>0.26400000000000001</v>
@@ -1510,7 +1542,7 @@
     </row>
     <row r="9" spans="2:11">
       <c r="B9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C9">
         <v>0.24199999999999999</v>
@@ -1538,7 +1570,7 @@
     </row>
     <row r="10" spans="2:11">
       <c r="B10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C10">
         <v>0.23599999999999999</v>
@@ -1566,7 +1598,7 @@
     </row>
     <row r="11" spans="2:11">
       <c r="B11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C11">
         <v>0.22900000000000001</v>
@@ -1584,7 +1616,7 @@
     </row>
     <row r="12" spans="2:11">
       <c r="B12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C12">
         <v>0.13400000000000001</v>
@@ -1592,7 +1624,7 @@
     </row>
     <row r="13" spans="2:11">
       <c r="B13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C13">
         <v>0.121</v>
@@ -1600,7 +1632,7 @@
     </row>
     <row r="14" spans="2:11">
       <c r="B14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C14">
         <v>0.105</v>
@@ -1608,7 +1640,7 @@
     </row>
     <row r="15" spans="2:11">
       <c r="B15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C15">
         <v>0.08</v>
@@ -1616,7 +1648,7 @@
     </row>
     <row r="16" spans="2:11">
       <c r="B16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C16">
         <v>7.0000000000000007E-2</v>
@@ -1624,7 +1656,7 @@
     </row>
     <row r="17" spans="2:3">
       <c r="B17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C17">
         <v>6.3E-2</v>
@@ -1632,7 +1664,7 @@
     </row>
     <row r="18" spans="2:3">
       <c r="B18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C18">
         <v>5.1999999999999998E-2</v>
@@ -1640,7 +1672,7 @@
     </row>
     <row r="19" spans="2:3">
       <c r="B19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C19">
         <v>4.9000000000000002E-2</v>
@@ -1648,7 +1680,7 @@
     </row>
     <row r="20" spans="2:3">
       <c r="B20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C20">
         <v>4.5999999999999999E-2</v>
@@ -1656,7 +1688,7 @@
     </row>
     <row r="21" spans="2:3">
       <c r="B21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C21">
         <v>3.3000000000000002E-2</v>
@@ -1664,7 +1696,7 @@
     </row>
     <row r="22" spans="2:3">
       <c r="B22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C22">
         <v>2.8000000000000001E-2</v>
@@ -1672,7 +1704,7 @@
     </row>
     <row r="23" spans="2:3">
       <c r="B23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C23">
         <v>2.5999999999999999E-2</v>
@@ -1680,7 +1712,7 @@
     </row>
     <row r="24" spans="2:3">
       <c r="B24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C24">
         <v>2.5999999999999999E-2</v>
@@ -1688,7 +1720,7 @@
     </row>
     <row r="25" spans="2:3">
       <c r="B25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C25">
         <v>1.6E-2</v>
@@ -1696,7 +1728,7 @@
     </row>
     <row r="26" spans="2:3">
       <c r="B26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C26">
         <v>1.4E-2</v>
@@ -1704,7 +1736,7 @@
     </row>
     <row r="27" spans="2:3">
       <c r="B27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C27">
         <v>1.4E-2</v>
@@ -1712,7 +1744,7 @@
     </row>
     <row r="28" spans="2:3">
       <c r="B28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C28">
         <v>1.2999999999999999E-2</v>
@@ -1720,7 +1752,7 @@
     </row>
     <row r="29" spans="2:3">
       <c r="B29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C29">
         <v>0.01</v>
@@ -1728,7 +1760,7 @@
     </row>
     <row r="30" spans="2:3">
       <c r="B30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C30">
         <v>0.01</v>
@@ -1736,7 +1768,7 @@
     </row>
     <row r="31" spans="2:3">
       <c r="B31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C31">
         <v>8.9999999999999993E-3</v>
@@ -1744,7 +1776,7 @@
     </row>
     <row r="32" spans="2:3">
       <c r="B32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C32">
         <v>8.9999999999999993E-3</v>
@@ -1752,7 +1784,7 @@
     </row>
     <row r="33" spans="2:3">
       <c r="B33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C33">
         <v>5.0000000000000001E-3</v>
@@ -1760,7 +1792,7 @@
     </row>
     <row r="34" spans="2:3">
       <c r="B34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C34">
         <v>3.0000000000000001E-3</v>
@@ -1768,7 +1800,7 @@
     </row>
     <row r="35" spans="2:3">
       <c r="B35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C35">
         <v>3.0000000000000001E-3</v>
@@ -1776,7 +1808,7 @@
     </row>
     <row r="36" spans="2:3">
       <c r="B36" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C36">
         <v>1E-3</v>
@@ -1784,7 +1816,7 @@
     </row>
     <row r="37" spans="2:3">
       <c r="B37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -1792,7 +1824,7 @@
     </row>
     <row r="38" spans="2:3">
       <c r="B38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -1800,6 +1832,20 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
+  <conditionalFormatting sqref="C5:C38">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{502F7664-8523-0843-A34B-5797CA9DCC4F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F5:F10">
     <cfRule type="dataBar" priority="3">
       <dataBar>
@@ -1828,24 +1874,23 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5:C38">
-    <cfRule type="dataBar" priority="1">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{502F7664-8523-0843-A34B-5797CA9DCC4F}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{502F7664-8523-0843-A34B-5797CA9DCC4F}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C5:C38</xm:sqref>
+        </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C918F10E-798E-C94B-A0CB-2C868E394404}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
@@ -1872,19 +1917,6 @@
           </x14:cfRule>
           <xm:sqref>J5:J11</xm:sqref>
         </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{502F7664-8523-0843-A34B-5797CA9DCC4F}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>C5:C38</xm:sqref>
-        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
